--- a/RUDN/Importance/Varible_f_class_in_Melanesia.xlsx
+++ b/RUDN/Importance/Varible_f_class_in_Melanesia.xlsx
@@ -628,10 +628,10 @@
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
   </si>
   <si>
     <t>Population ages 35-39, female (% of female population)</t>
@@ -1493,7 +1493,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1525619.815424525</v>
+        <v>1525619.815406835</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>55275.83159384947</v>
+        <v>55275.83159388795</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>6040.099325514785</v>
+        <v>6040.099325514974</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>5798.812583622024</v>
+        <v>5798.812583622288</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>5211.204962484197</v>
+        <v>5211.204962484044</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>4148.479434641164</v>
+        <v>4148.479434641268</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>3760.447760613778</v>
+        <v>3760.44776061398</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>2840.775775500395</v>
+        <v>2840.775775500456</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>2699.700055456555</v>
+        <v>2699.700055456505</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>2682.279744261695</v>
+        <v>2682.279744261646</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2483,7 +2483,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>2539.812959883709</v>
+        <v>2539.812959883661</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>2533.936454999727</v>
+        <v>2533.936454999687</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>2144.695047797321</v>
+        <v>2144.695047797294</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2626,7 +2626,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>2126.410192628219</v>
+        <v>2126.410192628168</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>2074.12257196884</v>
+        <v>2074.122571968885</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2670,7 +2670,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>2024.808364019411</v>
+        <v>2024.808364019378</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>1943.026928535116</v>
+        <v>1943.026928535088</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2780,7 +2780,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>1836.360003933455</v>
+        <v>1836.360003933489</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>1724.477608806929</v>
+        <v>1724.4776088069</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>1420.473457489503</v>
+        <v>1420.473457489517</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>1396.133393934563</v>
+        <v>1396.13339393455</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>1117.230334202479</v>
+        <v>1117.230334202467</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>918.0718562953296</v>
+        <v>918.0718562953385</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3055,7 +3055,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>834.39629837053</v>
+        <v>834.3962983705354</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>812.3541878071269</v>
+        <v>812.3541878071311</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>778.0427585153881</v>
+        <v>778.0427585153935</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>739.6025150398082</v>
+        <v>739.6025150398037</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3132,7 +3132,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>733.8383158459905</v>
+        <v>733.8383158459964</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>563.0506842457155</v>
+        <v>563.0506842457132</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3220,7 +3220,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>536.5537448296777</v>
+        <v>536.553744829681</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>437.193801362543</v>
+        <v>437.1938013625445</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>366.9969980778516</v>
+        <v>366.9969980778505</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>234.3728125539677</v>
+        <v>234.3728125540014</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>219.3115922260092</v>
+        <v>219.3115922260133</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>202.6410010614173</v>
+        <v>202.6410010614189</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>184.5357678470625</v>
+        <v>184.5357678470597</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>165.7306112213317</v>
+        <v>165.730611221332</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>162.0490200232942</v>
+        <v>162.0490200232938</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>149.453134870424</v>
+        <v>149.4531348704238</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>128.0990694592871</v>
+        <v>128.0990694592867</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3528,7 +3528,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>127.0875733074649</v>
+        <v>127.0875733074655</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3583,7 +3583,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>87.29464707105939</v>
+        <v>87.29464707105988</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>85.21191588556653</v>
+        <v>85.21191588556715</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>77.82381788166002</v>
+        <v>77.82381788166056</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3616,7 +3616,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>77.82381788165917</v>
+        <v>77.82381788166022</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>77.06291142576289</v>
+        <v>77.06291142576021</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>64.5480920559927</v>
+        <v>64.54809205599271</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>60.05622030750515</v>
+        <v>60.05622030750339</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>58.51634707008894</v>
+        <v>58.51634707008842</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>56.60763819168116</v>
+        <v>56.60763819168118</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>56.05561183580146</v>
+        <v>56.05561183580141</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>54.42575615413814</v>
+        <v>54.42575615413718</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -3792,7 +3792,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>54.27346435038722</v>
+        <v>54.27346435038667</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -3814,7 +3814,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>53.44337014726769</v>
+        <v>53.44337014726868</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>51.83974581333502</v>
+        <v>51.83974581333496</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -3847,7 +3847,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>51.46702208917812</v>
+        <v>51.46702208917824</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -3858,7 +3858,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>49.39682981487759</v>
+        <v>49.39682981487719</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>48.58887883691661</v>
+        <v>48.58887883691546</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>48.58887883691661</v>
+        <v>48.58887883691546</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>47.02570390233851</v>
+        <v>47.02570390233949</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>45.59412239936056</v>
+        <v>45.59412239767086</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>43.47852912828315</v>
+        <v>43.47852912828311</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4012,7 +4012,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>43.37157247631357</v>
+        <v>43.37157247631409</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>42.78596202541224</v>
+        <v>42.7859620254124</v>
       </c>
       <c r="C242">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>41.72457928554782</v>
+        <v>41.72457928554828</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>35.50894234161348</v>
+        <v>35.50894234161307</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>32.89200800197361</v>
+        <v>32.89200800197357</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>31.87126517147464</v>
+        <v>31.87126517147489</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>31.31019329075339</v>
+        <v>31.31019329075384</v>
       </c>
       <c r="C253">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>29.49596086852636</v>
+        <v>29.4959608685317</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>28.75313279811583</v>
+        <v>28.75313279812148</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4199,7 +4199,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>28.24501443536359</v>
+        <v>28.2450144353631</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>26.73511205605757</v>
+        <v>26.7351120560605</v>
       </c>
       <c r="C261">
         <v>0</v>
@@ -4331,7 +4331,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>24.8167579746249</v>
+        <v>24.81675797462484</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>24.80601493499452</v>
+        <v>24.80601493499449</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>24.80081629906212</v>
+        <v>24.8008162990621</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4397,7 +4397,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>24.2506876334378</v>
+        <v>24.25068763343383</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>22.54323880845985</v>
+        <v>22.5432388084585</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>22.08460884385558</v>
+        <v>22.08460884385916</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -4463,7 +4463,7 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>21.80671600911445</v>
+        <v>21.80671600911476</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -4474,7 +4474,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>21.40666277955334</v>
+        <v>21.40666277955227</v>
       </c>
       <c r="C283">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>21.04358753407797</v>
+        <v>21.04358753407791</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>19.17186165533137</v>
+        <v>19.17186165533088</v>
       </c>
       <c r="C299">
         <v>0</v>
@@ -4672,7 +4672,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>16.70259531917132</v>
+        <v>16.70259531917128</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>13.0016059546706</v>
+        <v>13.00160595467057</v>
       </c>
       <c r="C305">
         <v>2e-05</v>
@@ -4727,7 +4727,7 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>12.60244058530502</v>
+        <v>12.602440585305</v>
       </c>
       <c r="C306">
         <v>3e-05</v>
@@ -4738,7 +4738,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>12.60244058530502</v>
+        <v>12.602440585305</v>
       </c>
       <c r="C307">
         <v>3e-05</v>
@@ -4760,7 +4760,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>9.418203595052022</v>
+        <v>9.418203595052027</v>
       </c>
       <c r="C309">
         <v>0.00027</v>
@@ -4793,7 +4793,7 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>7.314047016780347</v>
+        <v>7.314047016780528</v>
       </c>
       <c r="C312">
         <v>0.00141</v>
